--- a/biology/Zoologie/Glaphyromyrmex_oligocenicus/Glaphyromyrmex_oligocenicus.xlsx
+++ b/biology/Zoologie/Glaphyromyrmex_oligocenicus/Glaphyromyrmex_oligocenicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaphyromyrmex oligocenicus est une espèce fossile de fourmis de la tribu des Formicini (sous-famille des Formicinae).
 </t>
@@ -511,17 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Glaphyromyrmex oligocenicus est décrite en 1915 par l'entomologiste américain William Morton Wheeler (1865-1937)[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de deux[2] :
-Rupélien de l'Oligocène inférieur, une collection d'Allemagne, de Kleinkembs, en région du Bade-Wurtemberg, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[3] ;
-Priabonien de l'Éocène supérieur, une seule collections de Russie, de Kaliningrad.
-Confirmation du genre
-Cette espèce est confirmée dans son genre en 1987 par Ute Spahr (d)[4],[2].
-Étymologie
-L'épithète spécifique latine oligocenicus signifie « de l'Oligocène », en rapport avec la période de découverte des fossiles dans l'ambre de la Baltique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Glaphyromyrmex oligocenicus est décrite en 1915 par l'entomologiste américain William Morton Wheeler (1865-1937),.
 </t>
         </is>
       </c>
@@ -547,20 +553,209 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de deux :
+Rupélien de l'Oligocène inférieur, une collection d'Allemagne, de Kleinkembs, en région du Bade-Wurtemberg, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) ;
+Priabonien de l'Éocène supérieur, une seule collections de Russie, de Kaliningrad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est confirmée dans son genre en 1987 par Ute Spahr (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine oligocenicus signifie « de l'Oligocène », en rapport avec la période de découverte des fossiles dans l'ambre de la Baltique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 1] : 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
 « Echant. R 331 Coll. Mieg. Mus. Bâle. Kleinkembs.
 Insecte de petite taille, couleur brunâtre avec tête un peu plus foncée.
-Tête elliptique, à peine allongée ; yeux gros, de forme ovale ; clypeus lenticulaire, transversal ; antennes insérées contre le bord postérieur du clypeus, la partie libre des antennes manque : trois ocelles punctiformes très écartés. Cou net. Thorax court, large ; sutures promésonotale et épimésonotale bien visibles, cette dernière profonde. Pétiole court, surmonté d'une écaille dressée. Abdomen allongé, cinq segments, légèrement en pointe à l'arrière. Pattes manquent, seules les hanches sont conservées, couleur brune. »[3].
-Dimensions
-La longueur totale de l'insecte est de 4 mm[3].
-Affinites
-« G. oligocenicus a été décrit de l'ambre de la Baltique. Le g. Glaphyromyrmex est voisin du g. Formica. »[3].
+Tête elliptique, à peine allongée ; yeux gros, de forme ovale ; clypeus lenticulaire, transversal ; antennes insérées contre le bord postérieur du clypeus, la partie libre des antennes manque : trois ocelles punctiformes très écartés. Cou net. Thorax court, large ; sutures promésonotale et épimésonotale bien visibles, cette dernière profonde. Pétiole court, surmonté d'une écaille dressée. Abdomen allongé, cinq segments, légèrement en pointe à l'arrière. Pattes manquent, seules les hanches sont conservées, couleur brune. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale de l'insecte est de 4 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyromyrmex_oligocenicus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinites</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« G. oligocenicus a été décrit de l'ambre de la Baltique. Le g. Glaphyromyrmex est voisin du g. Formica. ».
 </t>
         </is>
       </c>
